--- a/console/Networking/kubernetesExcel/components/create/nodeGroup.xlsx
+++ b/console/Networking/kubernetesExcel/components/create/nodeGroup.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
-    <t>The name cannot be null; it only supports Chinese, numbers, upper case and lower case letters, English underline "_" and line-through "-", with at most 32 characters'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set keys and values of tags added on the working nodes; a key is composed of a prefix and a name; the prefix cannot exceed 253 characters, consisting of DNS sub-domain; each sub-domain cannot exceed 63 characters, must be started and ended with lowercase letters or numbers and may contain "-" ".", uppercase and lower case letters or numbers; the name and value cannot exceed 63 characters respectively, must be started and ended with uppercase and lower case letters or numbers respectively and may contain "-" " _ " ".", uppercase and lower case letters and numbers; and at most five groups of tags can be added.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_1</t>
   </si>
   <si>
@@ -60,9 +47,6 @@
     </r>
   </si>
   <si>
-    <t>Select the Virtual Private Cloud for deployment of working node.</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_3</t>
   </si>
   <si>
@@ -148,9 +132,6 @@
     <t>nodeGroup_i18nKey_9</t>
   </si>
   <si>
-    <t>Set CIDR used by the working node and assign the primary network interface IP for the working nodes and applications on the JCS for Kubernetes within the CIDR setting rage.</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_10</t>
   </si>
   <si>
@@ -182,9 +163,6 @@
     </r>
   </si>
   <si>
-    <t>Specification</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_12</t>
   </si>
   <si>
@@ -199,15 +177,9 @@
     </r>
   </si>
   <si>
-    <t>Working Node Quantity</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_13</t>
   </si>
   <si>
-    <t>The maximum number of working nodes is subject to the quota of Virtual Machines in current region and distributable number of Private IP of working node CIDR.</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_14</t>
   </si>
   <si>
@@ -283,9 +255,6 @@
     <t>nodeGroup_i18nKey_20</t>
   </si>
   <si>
-    <t>Description cannot exceed 256 characters</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_21</t>
   </si>
   <si>
@@ -317,9 +286,6 @@
     </r>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>nodeGroup_i18nKey_23</t>
   </si>
   <si>
@@ -344,6 +310,175 @@
   </si>
   <si>
     <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不可为空，只支持中文、数字、大小写字母、英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+  </si>
+  <si>
+    <t>Increase quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide advanced options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description may be at most 256 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unfold Advanced options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a VPC for deploying working nodes;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of working nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit a ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subnet count of selected VPC has reached the quota. Please change to another VPC or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name is required and allows for chinese, numbers, uppercase and lowercase letters, underscores and hyphens only within 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -427,6 +562,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Set CIDR for Working nodes and all working nodes and pos in the cluster are assigned an IP address from this range.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -472,140 +615,13 @@
       </rPr>
       <t>数量限制。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称不可为空，只支持中文、数字、大小写字母、英文下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“_”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>及中划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“-”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，且不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum number of working nodes is subject to quota of Virtual Machines in current region and range of working node CIDR which will be used to allocate Private IP for working nodes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -723,25 +739,10 @@
       </rPr>
       <t>、大小写字母和数字；最多可添加五组标签</t>
     </r>
-  </si>
-  <si>
-    <t>The subnets of the selected VPC has reached the quota. Please switch to another VPC or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide advanced options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand advanced option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set labels for working nodes of Kubernetes. Labels are key/value pairs, valid label keys have two segments: an optional prefix and name, separated by a slash (/); The prefix is optional. If specified, the prefix must be a DNS subdomain: a series of DNS labels separated by dots (.), not longer than 253 characters in total, followed by a slash (/);  The name segment is required while label value can be empty, both must be 63 characters or less, beginning and ending with an alphanumeric character ([a-z0-9A-Z]) with dashes (-), underscores (_), dots (.), and alphanumerics between; The count of labels should be no more than five.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,6 +777,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -797,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,6 +823,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1144,277 +1169,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="57.625" customWidth="1"/>
-    <col min="3" max="3" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="68.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="80.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B8 A10:B13 A9 A15:B23 A14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B8 A10:B12 A9 A15:B22 A14 A13 A23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>